--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C2174E-DFE1-4956-B37C-D6BE01C9A188}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A2C855-27C5-4D2C-8EE8-B86E20E2B655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,14 +729,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1064,10 +1064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
@@ -1230,12 +1230,12 @@
         <v>33</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="D19" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       <c r="D20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       <c r="D21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="D23" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       <c r="D24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       <c r="D25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       <c r="D26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       <c r="D28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       <c r="D29" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       <c r="D30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="D31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       <c r="D32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       <c r="D33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       <c r="D34" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       <c r="D35" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       <c r="D36" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       <c r="D37" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="24" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       <c r="D38" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       <c r="D39" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="D40" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="D48" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="23" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="D49" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="23" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       <c r="D50" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="23" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       <c r="D51" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="23" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       <c r="D52" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="23" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       <c r="D53" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       <c r="D54" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       <c r="D55" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="23" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       <c r="D56" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="23" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       <c r="D57" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="23" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       <c r="D58" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="24" t="s">
+      <c r="E58" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="D59" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="23" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       <c r="D60" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="23" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       <c r="D61" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="23" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       <c r="D62" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="23" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="D63" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="23" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       <c r="D64" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="24" t="s">
+      <c r="E64" s="23" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="D65" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="D66" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="23" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       <c r="D67" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="23" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       <c r="D68" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="23" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="D69" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="23" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       <c r="D70" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="23" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       <c r="D71" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="23" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       <c r="D72" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="E72" s="23" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       <c r="D73" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="24" t="s">
+      <c r="E73" s="23" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="D74" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="23" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       <c r="D75" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="24" t="s">
+      <c r="E75" s="23" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2042,12 +2042,12 @@
         <v>146</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="24" t="s">
+      <c r="E76" s="23" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2061,14 +2061,14 @@
       <c r="D77" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="15" customFormat="1">
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
-      <c r="E78" s="24"/>
+      <c r="E78" s="23"/>
     </row>
     <row r="79" spans="1:5" s="15" customFormat="1">
       <c r="C79" s="16"/>

--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A2C855-27C5-4D2C-8EE8-B86E20E2B655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45573993-FAA0-41F9-BAD4-11194FA38931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>To verify whether dates are editable for the components</t>
   </si>
   <si>
-    <t>Shared pack icon</t>
-  </si>
-  <si>
     <t>Empty comment not saved</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>To verify whether Monitoring Search is working fine</t>
   </si>
   <si>
-    <t>To verify whether Shared icon showing for shared pack submission</t>
-  </si>
-  <si>
     <t>To verify that translation date is not applicable for samples</t>
   </si>
   <si>
@@ -341,81 +335,42 @@
     <t>Template #1</t>
   </si>
   <si>
-    <t>Open a submission with submission category containing 'Query/Queries/Response/Responses/Amendment/Amendments ', click on recreate plan and verify that plan is created with Basic Template</t>
-  </si>
-  <si>
     <t>Template #2</t>
   </si>
   <si>
-    <t>Open a submission with submission category containing 'Query/Queries/Response/Responses/Amendment/Amendments ', click on approve and verify that basic template is not changed to validated template</t>
-  </si>
-  <si>
     <t>Template #3</t>
   </si>
   <si>
-    <t>Open a submission, click on approve, check the 'Ignore components for validated templates' check box, click on proceed and verify template of the submission should be retained</t>
-  </si>
-  <si>
     <t>Template #4</t>
   </si>
   <si>
-    <t>Go to Multimarket page, select the submissions, switch to multi market view, click on approve icon and verify that user able use ignore validate template option</t>
-  </si>
-  <si>
     <t>Template #5</t>
   </si>
   <si>
-    <t>Open a submission , click on Basic / Validated template toggle in Timeline and Contributor Details section and verify user able to switch between basic template &amp; validated template</t>
-  </si>
-  <si>
     <t>Dashboard #1</t>
   </si>
   <si>
-    <t>To verify Dashboard - Workload graph filters and applying My Submissions filter</t>
-  </si>
-  <si>
     <t>Dashboard #2</t>
   </si>
   <si>
-    <t>Go to Dashboard, apply saved filters, click on workload filters and verify grid caption is changed to Workload Details</t>
-  </si>
-  <si>
     <t>Dashboard #3</t>
   </si>
   <si>
-    <t>Go to Dashboard and verify user able to view My Notifications &amp; Comment Notifications</t>
-  </si>
-  <si>
     <t>Dashboard #4</t>
   </si>
   <si>
-    <t>Go to Dashboard , click on log out and verify User should be Logged out from the application</t>
-  </si>
-  <si>
     <t>SummaryPanel #1</t>
   </si>
   <si>
-    <t>Open a submission, expand the summary panel and verify Product Classification field is mapped to the PRODUCT_CLASS column in IPLAN_PEARL_EVENT  table</t>
-  </si>
-  <si>
     <t>SummaryPanel #2</t>
   </si>
   <si>
-    <t>Open a submission and Verify that GRRS field is added to the summary panel</t>
-  </si>
-  <si>
     <t>SummaryPanel #3</t>
   </si>
   <si>
-    <t>Open a submission , expand summary panel and Verify that Email notification field is added in the summary panel</t>
-  </si>
-  <si>
     <t>Settings #1</t>
   </si>
   <si>
-    <t>Go to Settings Page and verify user is able to enable email for the notifications</t>
-  </si>
-  <si>
     <t>CTA #1</t>
   </si>
   <si>
@@ -431,21 +386,12 @@
     <t>MultiMarket #1</t>
   </si>
   <si>
-    <t>Go to multi market and verify that user is able to select, view submissions in multi market timeline and clear all selected submissions using ClearAll</t>
-  </si>
-  <si>
     <t>MultiMarket #2</t>
   </si>
   <si>
-    <t>Verify that when user selects more than 30 submissions pop up should be displayed</t>
-  </si>
-  <si>
     <t>MultiMarket #3</t>
   </si>
   <si>
-    <t>Verify that user should be able to approve and reassess a submission from multimarket timeline view</t>
-  </si>
-  <si>
     <t>Parallel_Filling_Chk</t>
   </si>
   <si>
@@ -455,39 +401,21 @@
     <t>Component_Search</t>
   </si>
   <si>
-    <t>To verify user is able to search a component</t>
-  </si>
-  <si>
     <t>Notifications_Show_All</t>
   </si>
   <si>
-    <t>To verify user is able to view all the notifications</t>
-  </si>
-  <si>
     <t>Notification_search</t>
   </si>
   <si>
-    <t>Verify that user should be able to search the notifications by submission id</t>
-  </si>
-  <si>
     <t>All_viewer_bu</t>
   </si>
   <si>
-    <t>To verfiy the business units for ALL_VIEWER role</t>
-  </si>
-  <si>
     <t>Edit_SubName</t>
   </si>
   <si>
-    <t>To verify user is able to edit submission name</t>
-  </si>
-  <si>
     <t>Verify_Roles</t>
   </si>
   <si>
-    <t>To verify the roles present for a user</t>
-  </si>
-  <si>
     <t>Planning_Tab_Count</t>
   </si>
   <si>
@@ -516,6 +444,78 @@
   </si>
   <si>
     <t>Verify that user able to filter the submissions by PDS</t>
+  </si>
+  <si>
+    <t>Verify submission is recreated with basic template for category 'Query/Queries/Response/Responses/Amendment/Amendments'</t>
+  </si>
+  <si>
+    <t>Verify submission is approved with basic template for category 'Query/Queries/Response/Responses/Amendment/Amendments '</t>
+  </si>
+  <si>
+    <t>Verify template of the submission is retained when approving with 'Ignore components for validated templates' checked</t>
+  </si>
+  <si>
+    <t>Verify user is able to approve with ignore validate template in multi market timeline view</t>
+  </si>
+  <si>
+    <t>Verify user is able to switch between basic template &amp; validated template in Timeline and Contributor Details section</t>
+  </si>
+  <si>
+    <t>Verify Dashboard - Workload graph filters and applying My Submissions filter</t>
+  </si>
+  <si>
+    <t>Verify grid caption is changed to Workload Details when applying save filters in dashboard</t>
+  </si>
+  <si>
+    <t>Verify user able to view My Notifications &amp; Comment Notifications in Dashboard</t>
+  </si>
+  <si>
+    <t>Verify user is able to log out from the application from Dashboard</t>
+  </si>
+  <si>
+    <t>Verify Product Classification field is mapped to the PRODUCT_CLASS column in summary panel</t>
+  </si>
+  <si>
+    <t>Verify GRRS field is added to the summary panel</t>
+  </si>
+  <si>
+    <t>Verify Email notification field is added in the summary panel</t>
+  </si>
+  <si>
+    <t>Verify user is able to enable email for the notifications</t>
+  </si>
+  <si>
+    <t>Verify user is able to select, view and clear submissions in multi market timeline</t>
+  </si>
+  <si>
+    <t>Verify pop up displayed when user selects more than 30 submissions</t>
+  </si>
+  <si>
+    <t>Verify approve and reassess in multimarket timeline view</t>
+  </si>
+  <si>
+    <t>Verify user is able to search a component</t>
+  </si>
+  <si>
+    <t>Verify user is able to view all the notifications</t>
+  </si>
+  <si>
+    <t>Verify user is able to search the notifications by submission id</t>
+  </si>
+  <si>
+    <t>Verfiy the business units for ALL_VIEWER role</t>
+  </si>
+  <si>
+    <t>Verify user is able to edit submission name</t>
+  </si>
+  <si>
+    <t>Verify the roles present for a user</t>
+  </si>
+  <si>
+    <t>Migrated icon</t>
+  </si>
+  <si>
+    <t>To verify whether Migrated icon showing for Migrated  submission</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>17</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>22</v>
@@ -1213,7 +1213,7 @@
     <row r="17" spans="1:5" s="18" customFormat="1" ht="30">
       <c r="A17" s="17"/>
       <c r="B17" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>6</v>
@@ -1222,7 +1222,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="18" customFormat="1" ht="33.75" customHeight="1">
@@ -1244,7 +1244,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>6</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="20" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>6</v>
@@ -1272,7 +1272,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>6</v>
@@ -1286,7 +1286,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>6</v>
@@ -1300,13 +1300,13 @@
         <v>26</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
@@ -1314,13 +1314,13 @@
         <v>36</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
@@ -1328,7 +1328,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>6</v>
@@ -1342,7 +1342,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
@@ -1356,7 +1356,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>6</v>
@@ -1370,7 +1370,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>6</v>
@@ -1381,688 +1381,688 @@
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B29" s="18" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B30" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B31" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B32" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B33" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:5" s="18" customFormat="1" ht="42.75" customHeight="1">
       <c r="B34" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B35" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B36" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B37" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B40" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="24" t="s">
         <v>75</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:5" s="18" customFormat="1">
       <c r="B41" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:5" s="18" customFormat="1">
       <c r="B42" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:5" s="18" customFormat="1">
       <c r="B43" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:5" s="18" customFormat="1">
       <c r="B44" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:5" s="18" customFormat="1">
       <c r="B45" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:5" s="18" customFormat="1">
       <c r="B46" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:5" s="18" customFormat="1">
       <c r="B47" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="2:5" s="15" customFormat="1" ht="58.5" customHeight="1">
       <c r="B48" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B49" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" s="15" customFormat="1" ht="51.75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" s="15" customFormat="1" ht="46.5" customHeight="1">
       <c r="B50" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="2:5" s="15" customFormat="1" ht="48" customHeight="1">
       <c r="B51" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="2:5" s="15" customFormat="1" ht="60.75" customHeight="1">
       <c r="B52" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:5" s="15" customFormat="1" ht="51" customHeight="1">
       <c r="B53" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="2:5" s="15" customFormat="1" ht="51" customHeight="1">
       <c r="B54" s="15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="2:5" s="15" customFormat="1" ht="51" customHeight="1">
       <c r="B55" s="15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="2:5" s="15" customFormat="1" ht="51" customHeight="1">
       <c r="B56" s="15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="2:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B57" s="15" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" s="15" customFormat="1" ht="34.5" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B58" s="15" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" s="15" customFormat="1" ht="34.5" customHeight="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="15" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" s="15" customFormat="1" ht="36" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B60" s="15" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" s="15" customFormat="1" ht="27.75" customHeight="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B61" s="15" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" s="15" customFormat="1" ht="33.75" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B62" s="15" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" s="15" customFormat="1" ht="50.25" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="15" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" s="15" customFormat="1" ht="32.25" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B64" s="15" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="15" customFormat="1" ht="28.5" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B65" s="15" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="15" customFormat="1">
       <c r="B66" s="15" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="15" customFormat="1">
       <c r="B67" s="15" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="15" customFormat="1">
       <c r="B68" s="15" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="15" customFormat="1" ht="29.25" customHeight="1">
       <c r="B69" s="15" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="15" customFormat="1">
       <c r="B70" s="15" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="15" customFormat="1">
       <c r="B71" s="15" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="15" customFormat="1">
       <c r="B72" s="15" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="15" customFormat="1">
       <c r="B73" s="15" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="15" customFormat="1">
       <c r="B74" s="15" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="15" customFormat="1">
       <c r="B75" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="15" customFormat="1" ht="18.75" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="B76" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="15" customFormat="1">
       <c r="B77" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="15" customFormat="1">

--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45573993-FAA0-41F9-BAD4-11194FA38931}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5630DF-6B4D-4047-BF6B-04A5AC1FDFAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5630DF-6B4D-4047-BF6B-04A5AC1FDFAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B695D-88AB-4B80-B989-791D422B6902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B695D-88AB-4B80-B989-791D422B6902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56AA109-6D18-49D5-B0B3-32ED62256CDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,9 +1281,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="27" customHeight="1">
       <c r="B22" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>4</v>
@@ -1291,13 +1291,13 @@
       <c r="D22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="27" customHeight="1">
+      <c r="E22" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B23" s="18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>4</v>
@@ -1306,12 +1306,12 @@
         <v>6</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B24" s="18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>4</v>
@@ -1320,12 +1320,12 @@
         <v>6</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B25" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>4</v>
@@ -1334,12 +1334,12 @@
         <v>6</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1">
       <c r="B26" s="18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>4</v>
@@ -1347,8 +1347,8 @@
       <c r="D26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>40</v>
+      <c r="E26" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1">
@@ -1649,7 +1649,7 @@
       <c r="B48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="16" t="s">
@@ -1663,7 +1663,7 @@
       <c r="B49" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="16" t="s">
@@ -1677,7 +1677,7 @@
       <c r="B50" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D50" s="16" t="s">
@@ -1691,7 +1691,7 @@
       <c r="B51" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="16" t="s">
@@ -1705,7 +1705,7 @@
       <c r="B52" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="16" t="s">
@@ -1719,7 +1719,7 @@
       <c r="B53" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D53" s="16" t="s">
@@ -1733,7 +1733,7 @@
       <c r="B54" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="16" t="s">
@@ -1747,7 +1747,7 @@
       <c r="B55" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="16" t="s">
@@ -1761,7 +1761,7 @@
       <c r="B56" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="16" t="s">
@@ -1775,7 +1775,7 @@
       <c r="B57" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="16" t="s">
@@ -1789,7 +1789,7 @@
       <c r="B58" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="16" t="s">
@@ -1803,7 +1803,7 @@
       <c r="B59" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="16" t="s">
@@ -1817,7 +1817,7 @@
       <c r="B60" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="16" t="s">
@@ -1831,7 +1831,7 @@
       <c r="B61" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="16" t="s">
@@ -1845,7 +1845,7 @@
       <c r="B62" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D62" s="16" t="s">
@@ -1859,7 +1859,7 @@
       <c r="B63" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="16" t="s">
@@ -1873,7 +1873,7 @@
       <c r="B64" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="16" t="s">
@@ -1887,7 +1887,7 @@
       <c r="B65" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D65" s="16" t="s">
@@ -1901,7 +1901,7 @@
       <c r="B66" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="16" t="s">
@@ -1915,7 +1915,7 @@
       <c r="B67" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="16" t="s">
@@ -1929,7 +1929,7 @@
       <c r="B68" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="16" t="s">
@@ -1943,7 +1943,7 @@
       <c r="B69" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="16" t="s">
@@ -1955,137 +1955,132 @@
     </row>
     <row r="70" spans="1:5" s="15" customFormat="1">
       <c r="B70" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="15" customFormat="1">
       <c r="B71" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="15" customFormat="1">
       <c r="B72" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="15" customFormat="1">
       <c r="B73" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="15" customFormat="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="B74" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="15" customFormat="1">
       <c r="B75" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="15" customFormat="1" ht="30" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="15" customFormat="1">
       <c r="B76" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="15" customFormat="1">
       <c r="B77" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="15" customFormat="1">
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
-      <c r="E78" s="23"/>
-    </row>
-    <row r="79" spans="1:5" s="15" customFormat="1">
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14" t="s">
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D79" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E79" s="14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2095,13 +2090,13 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:C14 C16:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:C14 C78:C1048576 C16:C77" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Regression,Defect Verification,Functional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27 D18:D23 D48:D79" xr:uid="{EAB48051-5C6D-4B58-B007-F9A526BDCDA0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D27 D18:D22 D78 D48:D77" xr:uid="{EAB48051-5C6D-4B58-B007-F9A526BDCDA0}">
       <formula1>"P,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56AA109-6D18-49D5-B0B3-32ED62256CDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92AF90B-9330-42F0-A61B-409E4CCB07A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>

--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92AF90B-9330-42F0-A61B-409E4CCB07A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF052E6-8C04-487C-964A-96B6B3A753D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:XFD76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,65 +1337,65 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="18" customFormat="1">
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
+      <c r="B27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="18" customFormat="1">
+      <c r="B28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="18" t="s">
+      <c r="C28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="18" customFormat="1">
-      <c r="B27" s="18" t="s">
+    <row r="29" spans="1:5" s="18" customFormat="1">
+      <c r="B29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="18" t="s">
+      <c r="C29" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B28" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B29" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B30" s="18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>4</v>
@@ -1404,12 +1404,12 @@
         <v>6</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B31" s="18" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>4</v>
@@ -1418,12 +1418,12 @@
         <v>6</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B32" s="18" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>4</v>
@@ -1432,12 +1432,12 @@
         <v>6</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:5" s="18" customFormat="1" ht="31.5" customHeight="1">
       <c r="B33" s="18" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>4</v>
@@ -1446,7 +1446,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:5" s="18" customFormat="1" ht="42.75" customHeight="1">
@@ -2090,13 +2090,13 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:C14 C78:C1048576 C16:C77" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:C14 C16:C27 C28:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Regression,Defect Verification,Functional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D27 D18:D22 D78 D48:D77" xr:uid="{EAB48051-5C6D-4B58-B007-F9A526BDCDA0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29 D18:D22 D78 D48:D77" xr:uid="{EAB48051-5C6D-4B58-B007-F9A526BDCDA0}">
       <formula1>"P,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF052E6-8C04-487C-964A-96B6B3A753D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FEF4F-103D-4FA3-96A8-F5BAC32DFCD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6FEF4F-103D-4FA3-96A8-F5BAC32DFCD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811C631D-4431-4CF6-BBDA-838D81C15B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TestCases/Testcases.xlsx
+++ b/TestCases/Testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811C631D-4431-4CF6-BBDA-838D81C15B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E6023B-C575-4A27-9E30-11895B6FFEBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C77"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1244,7 +1244,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>6</v>
@@ -1258,7 +1258,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>6</v>
@@ -1272,7 +1272,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>6</v>
@@ -1286,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>6</v>
@@ -1300,7 +1300,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
@@ -1314,7 +1314,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>6</v>
@@ -1328,7 +1328,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>6</v>
@@ -1342,7 +1342,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
@@ -1356,7 +1356,7 @@
         <v>73</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>6</v>
@@ -1370,7 +1370,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>6</v>
@@ -1384,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>6</v>
@@ -1398,7 +1398,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>6</v>
@@ -1412,7 +1412,7 @@
         <v>148</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>6</v>
@@ -1426,7 +1426,7 @@
         <v>43</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>6</v>
@@ -1440,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>6</v>
@@ -1454,7 +1454,7 @@
         <v>57</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>6</v>
@@ -1468,7 +1468,7 @@
         <v>48</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>6</v>
@@ -1482,7 +1482,7 @@
         <v>50</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>6</v>
@@ -1496,7 +1496,7 @@
         <v>63</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>6</v>
@@ -1510,7 +1510,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>6</v>
@@ -1524,7 +1524,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>6</v>
@@ -1538,7 +1538,7 @@
         <v>74</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>6</v>
@@ -1552,7 +1552,7 @@
         <v>65</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>6</v>
@@ -1566,7 +1566,7 @@
         <v>66</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>6</v>
@@ -1580,7 +1580,7 @@
         <v>67</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>6</v>
@@ -1594,7 +1594,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>6</v>
@@ -1608,7 +1608,7 @@
         <v>69</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>6</v>
@@ -1622,7 +1622,7 @@
         <v>70</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46" s="22" t="s">
         <v>6</v>
@@ -1636,7 +1636,7 @@
         <v>71</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>6</v>
@@ -1650,7 +1650,7 @@
         <v>88</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>6</v>
@@ -1664,7 +1664,7 @@
         <v>89</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>6</v>
@@ -1678,7 +1678,7 @@
         <v>90</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>6</v>
@@ -1692,7 +1692,7 @@
         <v>91</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>6</v>
@@ -1706,7 +1706,7 @@
         <v>92</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>6</v>
@@ -1720,7 +1720,7 @@
         <v>93</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>6</v>
@@ -1734,7 +1734,7 @@
         <v>94</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>6</v>
@@ -1748,7 +1748,7 @@
         <v>95</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>6</v>
@@ -1762,7 +1762,7 @@
         <v>96</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>6</v>
@@ -1776,7 +1776,7 @@
         <v>97</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>6</v>
@@ -1790,7 +1790,7 @@
         <v>98</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>6</v>
@@ -1804,7 +1804,7 @@
         <v>99</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D59" s="16" t="s">
         <v>6</v>
@@ -1818,7 +1818,7 @@
         <v>100</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>6</v>
@@ -1832,7 +1832,7 @@
         <v>101</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>6</v>
@@ -1846,7 +1846,7 @@
         <v>103</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>6</v>
@@ -1860,7 +1860,7 @@
         <v>105</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>6</v>
@@ -1874,7 +1874,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>6</v>
@@ -1888,7 +1888,7 @@
         <v>107</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>6</v>
@@ -1902,7 +1902,7 @@
         <v>108</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>6</v>
@@ -1916,7 +1916,7 @@
         <v>110</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D67" s="16" t="s">
         <v>6</v>
@@ -1930,7 +1930,7 @@
         <v>111</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>6</v>
@@ -1944,7 +1944,7 @@
         <v>112</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>6</v>
@@ -1958,7 +1958,7 @@
         <v>114</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>6</v>
@@ -1972,7 +1972,7 @@
         <v>116</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>6</v>
@@ -1986,7 +1986,7 @@
         <v>118</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>6</v>
@@ -2000,7 +2000,7 @@
         <v>120</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>6</v>
@@ -2014,7 +2014,7 @@
         <v>122</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>6</v>
@@ -2028,7 +2028,7 @@
         <v>124</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>6</v>
@@ -2042,7 +2042,7 @@
         <v>115</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>6</v>
@@ -2056,7 +2056,7 @@
         <v>113</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>6</v>
@@ -2090,13 +2090,13 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:C14 C16:C27 C28:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:C14 C16:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Regression,Defect Verification,Functional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29 D18:D22 D78 D48:D77" xr:uid="{EAB48051-5C6D-4B58-B007-F9A526BDCDA0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29 D18:D22 D48:D78" xr:uid="{EAB48051-5C6D-4B58-B007-F9A526BDCDA0}">
       <formula1>"P,N"</formula1>
     </dataValidation>
   </dataValidations>
